--- a/0.doc/09.Outputs/02.ERD 및 테이블 정의서/03.테이블상세.xlsx
+++ b/0.doc/09.Outputs/02.ERD 및 테이블 정의서/03.테이블상세.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\down\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="16995"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="23505" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
     <sheet name="컬럼목록" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="501">
   <si>
     <t>macrogenwww</t>
   </si>
@@ -1430,12 +1426,144 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>post_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회공헌 컨텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_social_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_social_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회공헌 컨텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cntnts_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cntnts_ctgry_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_atch_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cntnts_sj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_ordr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updt_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updusr_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠_순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠_카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지_첨부_아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠_제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬_순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록_일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자_순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정_일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자_순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어_코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1551,7 +1679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1586,7 +1714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1763,7 +1891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1773,9 +1901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2226,9 +2354,15 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -2248,11 +2382,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F388" sqref="F388:G388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5282,7 +5416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>23</v>
       </c>
@@ -5305,34 +5439,30 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C130" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>231</v>
+        <v>468</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>25</v>
       </c>
@@ -5340,22 +5470,26 @@
         <v>26</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>25</v>
       </c>
@@ -5363,22 +5497,22 @@
         <v>26</v>
       </c>
       <c r="C132" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>25</v>
       </c>
@@ -5386,22 +5520,22 @@
         <v>26</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>25</v>
       </c>
@@ -5409,10 +5543,10 @@
         <v>26</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>91</v>
@@ -5421,10 +5555,10 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
@@ -5432,22 +5566,22 @@
         <v>26</v>
       </c>
       <c r="C135" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -5455,22 +5589,22 @@
         <v>26</v>
       </c>
       <c r="C136" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>25</v>
       </c>
@@ -5478,22 +5612,22 @@
         <v>26</v>
       </c>
       <c r="C137" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>25</v>
       </c>
@@ -5501,49 +5635,45 @@
         <v>26</v>
       </c>
       <c r="C138" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>27</v>
       </c>
@@ -5551,24 +5681,26 @@
         <v>28</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>27</v>
       </c>
@@ -5576,22 +5708,24 @@
         <v>28</v>
       </c>
       <c r="C141" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F141" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>27</v>
       </c>
@@ -5599,22 +5733,22 @@
         <v>28</v>
       </c>
       <c r="C142" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>27</v>
       </c>
@@ -5622,22 +5756,22 @@
         <v>28</v>
       </c>
       <c r="C143" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>27</v>
       </c>
@@ -5645,22 +5779,22 @@
         <v>28</v>
       </c>
       <c r="C144" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>27</v>
       </c>
@@ -5668,22 +5802,22 @@
         <v>28</v>
       </c>
       <c r="C145" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>27</v>
       </c>
@@ -5691,22 +5825,22 @@
         <v>28</v>
       </c>
       <c r="C146" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>27</v>
       </c>
@@ -5714,22 +5848,22 @@
         <v>28</v>
       </c>
       <c r="C147" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>27</v>
       </c>
@@ -5737,22 +5871,22 @@
         <v>28</v>
       </c>
       <c r="C148" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
@@ -5760,22 +5894,22 @@
         <v>28</v>
       </c>
       <c r="C149" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>27</v>
       </c>
@@ -5783,22 +5917,22 @@
         <v>28</v>
       </c>
       <c r="C150" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>27</v>
       </c>
@@ -5806,22 +5940,22 @@
         <v>28</v>
       </c>
       <c r="C151" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>27</v>
       </c>
@@ -5829,49 +5963,45 @@
         <v>28</v>
       </c>
       <c r="C152" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C153" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>29</v>
       </c>
@@ -5879,24 +6009,26 @@
         <v>30</v>
       </c>
       <c r="C154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G154" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>29</v>
       </c>
@@ -5904,22 +6036,24 @@
         <v>30</v>
       </c>
       <c r="C155" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F155" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
@@ -5927,22 +6061,22 @@
         <v>30</v>
       </c>
       <c r="C156" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>29</v>
       </c>
@@ -5950,22 +6084,22 @@
         <v>30</v>
       </c>
       <c r="C157" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>29</v>
       </c>
@@ -5973,49 +6107,45 @@
         <v>30</v>
       </c>
       <c r="C158" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>31</v>
       </c>
@@ -6023,24 +6153,26 @@
         <v>32</v>
       </c>
       <c r="C160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G160" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>31</v>
       </c>
@@ -6048,22 +6180,24 @@
         <v>32</v>
       </c>
       <c r="C161" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>31</v>
       </c>
@@ -6071,22 +6205,22 @@
         <v>32</v>
       </c>
       <c r="C162" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>31</v>
       </c>
@@ -6094,22 +6228,22 @@
         <v>32</v>
       </c>
       <c r="C163" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>31</v>
       </c>
@@ -6117,22 +6251,22 @@
         <v>32</v>
       </c>
       <c r="C164" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>31</v>
       </c>
@@ -6140,22 +6274,22 @@
         <v>32</v>
       </c>
       <c r="C165" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>31</v>
       </c>
@@ -6163,22 +6297,22 @@
         <v>32</v>
       </c>
       <c r="C166" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>31</v>
       </c>
@@ -6186,49 +6320,45 @@
         <v>32</v>
       </c>
       <c r="C167" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>33</v>
       </c>
@@ -6236,26 +6366,26 @@
         <v>34</v>
       </c>
       <c r="C169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>33</v>
       </c>
@@ -6263,22 +6393,26 @@
         <v>34</v>
       </c>
       <c r="C170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>33</v>
       </c>
@@ -6286,22 +6420,22 @@
         <v>34</v>
       </c>
       <c r="C171" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>33</v>
       </c>
@@ -6309,22 +6443,22 @@
         <v>34</v>
       </c>
       <c r="C172" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>33</v>
       </c>
@@ -6332,49 +6466,45 @@
         <v>34</v>
       </c>
       <c r="C173" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C174" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>35</v>
       </c>
@@ -6382,24 +6512,26 @@
         <v>36</v>
       </c>
       <c r="C175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G175" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>35</v>
       </c>
@@ -6407,13 +6539,13 @@
         <v>36</v>
       </c>
       <c r="C176" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>119</v>
@@ -6421,10 +6553,10 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>35</v>
       </c>
@@ -6432,22 +6564,24 @@
         <v>36</v>
       </c>
       <c r="C177" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F177" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>35</v>
       </c>
@@ -6455,22 +6589,22 @@
         <v>36</v>
       </c>
       <c r="C178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>35</v>
       </c>
@@ -6478,22 +6612,22 @@
         <v>36</v>
       </c>
       <c r="C179" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>35</v>
       </c>
@@ -6501,22 +6635,22 @@
         <v>36</v>
       </c>
       <c r="C180" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>35</v>
       </c>
@@ -6524,22 +6658,22 @@
         <v>36</v>
       </c>
       <c r="C181" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>35</v>
       </c>
@@ -6547,24 +6681,22 @@
         <v>36</v>
       </c>
       <c r="C182" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>35</v>
       </c>
@@ -6572,22 +6704,24 @@
         <v>36</v>
       </c>
       <c r="C183" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F183" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>35</v>
       </c>
@@ -6595,22 +6729,22 @@
         <v>36</v>
       </c>
       <c r="C184" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>35</v>
       </c>
@@ -6618,22 +6752,22 @@
         <v>36</v>
       </c>
       <c r="C185" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>35</v>
       </c>
@@ -6641,22 +6775,22 @@
         <v>36</v>
       </c>
       <c r="C186" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>35</v>
       </c>
@@ -6664,22 +6798,22 @@
         <v>36</v>
       </c>
       <c r="C187" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>35</v>
       </c>
@@ -6687,22 +6821,22 @@
         <v>36</v>
       </c>
       <c r="C188" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>35</v>
       </c>
@@ -6710,22 +6844,22 @@
         <v>36</v>
       </c>
       <c r="C189" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>35</v>
       </c>
@@ -6733,22 +6867,22 @@
         <v>36</v>
       </c>
       <c r="C190" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>35</v>
       </c>
@@ -6756,10 +6890,10 @@
         <v>36</v>
       </c>
       <c r="C191" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>83</v>
@@ -6768,10 +6902,10 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>35</v>
       </c>
@@ -6779,22 +6913,22 @@
         <v>36</v>
       </c>
       <c r="C192" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>35</v>
       </c>
@@ -6802,22 +6936,22 @@
         <v>36</v>
       </c>
       <c r="C193" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>35</v>
       </c>
@@ -6825,22 +6959,22 @@
         <v>36</v>
       </c>
       <c r="C194" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>35</v>
       </c>
@@ -6848,22 +6982,22 @@
         <v>36</v>
       </c>
       <c r="C195" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>35</v>
       </c>
@@ -6871,22 +7005,22 @@
         <v>36</v>
       </c>
       <c r="C196" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>35</v>
       </c>
@@ -6894,22 +7028,22 @@
         <v>36</v>
       </c>
       <c r="C197" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>35</v>
       </c>
@@ -6917,10 +7051,10 @@
         <v>36</v>
       </c>
       <c r="C198" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>159</v>
@@ -6929,37 +7063,33 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C199" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>37</v>
       </c>
@@ -6967,13 +7097,13 @@
         <v>38</v>
       </c>
       <c r="C200" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>84</v>
@@ -6983,10 +7113,10 @@
       </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>37</v>
       </c>
@@ -6994,22 +7124,26 @@
         <v>38</v>
       </c>
       <c r="C201" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H201" s="1"/>
       <c r="I201" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>37</v>
       </c>
@@ -7017,22 +7151,22 @@
         <v>38</v>
       </c>
       <c r="C202" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>37</v>
       </c>
@@ -7040,22 +7174,22 @@
         <v>38</v>
       </c>
       <c r="C203" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>37</v>
       </c>
@@ -7063,22 +7197,22 @@
         <v>38</v>
       </c>
       <c r="C204" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>37</v>
       </c>
@@ -7086,49 +7220,45 @@
         <v>38</v>
       </c>
       <c r="C205" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C206" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>39</v>
       </c>
@@ -7136,13 +7266,13 @@
         <v>40</v>
       </c>
       <c r="C207" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>84</v>
@@ -7152,10 +7282,10 @@
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>39</v>
       </c>
@@ -7163,22 +7293,26 @@
         <v>40</v>
       </c>
       <c r="C208" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>39</v>
       </c>
@@ -7186,22 +7320,22 @@
         <v>40</v>
       </c>
       <c r="C209" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>39</v>
       </c>
@@ -7209,22 +7343,22 @@
         <v>40</v>
       </c>
       <c r="C210" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>39</v>
       </c>
@@ -7232,22 +7366,22 @@
         <v>40</v>
       </c>
       <c r="C211" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>39</v>
       </c>
@@ -7255,49 +7389,45 @@
         <v>40</v>
       </c>
       <c r="C212" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C213" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>41</v>
       </c>
@@ -7305,22 +7435,26 @@
         <v>42</v>
       </c>
       <c r="C214" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>41</v>
       </c>
@@ -7328,10 +7462,10 @@
         <v>42</v>
       </c>
       <c r="C215" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>83</v>
@@ -7340,10 +7474,10 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>41</v>
       </c>
@@ -7351,10 +7485,10 @@
         <v>42</v>
       </c>
       <c r="C216" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>83</v>
@@ -7363,10 +7497,10 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>41</v>
       </c>
@@ -7374,22 +7508,22 @@
         <v>42</v>
       </c>
       <c r="C217" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>41</v>
       </c>
@@ -7397,22 +7531,22 @@
         <v>42</v>
       </c>
       <c r="C218" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>41</v>
       </c>
@@ -7420,22 +7554,22 @@
         <v>42</v>
       </c>
       <c r="C219" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>41</v>
       </c>
@@ -7443,22 +7577,22 @@
         <v>42</v>
       </c>
       <c r="C220" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>41</v>
       </c>
@@ -7466,49 +7600,45 @@
         <v>42</v>
       </c>
       <c r="C221" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C222" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>43</v>
       </c>
@@ -7516,22 +7646,26 @@
         <v>44</v>
       </c>
       <c r="C223" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H223" s="1"/>
       <c r="I223" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>43</v>
       </c>
@@ -7539,22 +7673,22 @@
         <v>44</v>
       </c>
       <c r="C224" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>43</v>
       </c>
@@ -7562,10 +7696,10 @@
         <v>44</v>
       </c>
       <c r="C225" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>83</v>
@@ -7574,10 +7708,10 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>43</v>
       </c>
@@ -7585,22 +7719,22 @@
         <v>44</v>
       </c>
       <c r="C226" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>43</v>
       </c>
@@ -7608,22 +7742,22 @@
         <v>44</v>
       </c>
       <c r="C227" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>43</v>
       </c>
@@ -7631,10 +7765,10 @@
         <v>44</v>
       </c>
       <c r="C228" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>211</v>
@@ -7643,10 +7777,10 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>43</v>
       </c>
@@ -7654,10 +7788,10 @@
         <v>44</v>
       </c>
       <c r="C229" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>211</v>
@@ -7666,10 +7800,10 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>43</v>
       </c>
@@ -7677,10 +7811,10 @@
         <v>44</v>
       </c>
       <c r="C230" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>211</v>
@@ -7689,10 +7823,10 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>43</v>
       </c>
@@ -7700,10 +7834,10 @@
         <v>44</v>
       </c>
       <c r="C231" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>211</v>
@@ -7712,10 +7846,10 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>43</v>
       </c>
@@ -7723,10 +7857,10 @@
         <v>44</v>
       </c>
       <c r="C232" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>211</v>
@@ -7735,10 +7869,10 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>43</v>
       </c>
@@ -7746,10 +7880,10 @@
         <v>44</v>
       </c>
       <c r="C233" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>211</v>
@@ -7758,10 +7892,10 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>43</v>
       </c>
@@ -7769,22 +7903,22 @@
         <v>44</v>
       </c>
       <c r="C234" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>103</v>
+        <v>335</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>43</v>
       </c>
@@ -7792,22 +7926,22 @@
         <v>44</v>
       </c>
       <c r="C235" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>43</v>
       </c>
@@ -7815,22 +7949,22 @@
         <v>44</v>
       </c>
       <c r="C236" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>43</v>
       </c>
@@ -7838,22 +7972,22 @@
         <v>44</v>
       </c>
       <c r="C237" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>43</v>
       </c>
@@ -7861,22 +7995,22 @@
         <v>44</v>
       </c>
       <c r="C238" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>43</v>
       </c>
@@ -7884,10 +8018,10 @@
         <v>44</v>
       </c>
       <c r="C239" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>211</v>
@@ -7896,37 +8030,33 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C240" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>45</v>
       </c>
@@ -7934,24 +8064,26 @@
         <v>46</v>
       </c>
       <c r="C241" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G241" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>45</v>
       </c>
@@ -7959,22 +8091,24 @@
         <v>46</v>
       </c>
       <c r="C242" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F242" s="1"/>
+      <c r="F242" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>45</v>
       </c>
@@ -7982,22 +8116,22 @@
         <v>46</v>
       </c>
       <c r="C243" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>45</v>
       </c>
@@ -8005,22 +8139,22 @@
         <v>46</v>
       </c>
       <c r="C244" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>45</v>
       </c>
@@ -8028,22 +8162,22 @@
         <v>46</v>
       </c>
       <c r="C245" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>45</v>
       </c>
@@ -8051,22 +8185,22 @@
         <v>46</v>
       </c>
       <c r="C246" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>45</v>
       </c>
@@ -8074,22 +8208,22 @@
         <v>46</v>
       </c>
       <c r="C247" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>103</v>
+        <v>350</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>45</v>
       </c>
@@ -8097,22 +8231,22 @@
         <v>46</v>
       </c>
       <c r="C248" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>45</v>
       </c>
@@ -8120,22 +8254,22 @@
         <v>46</v>
       </c>
       <c r="C249" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>45</v>
       </c>
@@ -8143,22 +8277,22 @@
         <v>46</v>
       </c>
       <c r="C250" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>45</v>
       </c>
@@ -8166,49 +8300,45 @@
         <v>46</v>
       </c>
       <c r="C251" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>47</v>
       </c>
@@ -8216,22 +8346,26 @@
         <v>48</v>
       </c>
       <c r="C253" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>47</v>
       </c>
@@ -8239,22 +8373,22 @@
         <v>48</v>
       </c>
       <c r="C254" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>47</v>
       </c>
@@ -8262,10 +8396,10 @@
         <v>48</v>
       </c>
       <c r="C255" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>104</v>
@@ -8274,10 +8408,10 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>47</v>
       </c>
@@ -8285,22 +8419,22 @@
         <v>48</v>
       </c>
       <c r="C256" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>47</v>
       </c>
@@ -8308,22 +8442,22 @@
         <v>48</v>
       </c>
       <c r="C257" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>47</v>
       </c>
@@ -8331,22 +8465,22 @@
         <v>48</v>
       </c>
       <c r="C258" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>47</v>
       </c>
@@ -8354,22 +8488,22 @@
         <v>48</v>
       </c>
       <c r="C259" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>47</v>
       </c>
@@ -8377,22 +8511,22 @@
         <v>48</v>
       </c>
       <c r="C260" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>47</v>
       </c>
@@ -8400,22 +8534,22 @@
         <v>48</v>
       </c>
       <c r="C261" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>47</v>
       </c>
@@ -8423,22 +8557,22 @@
         <v>48</v>
       </c>
       <c r="C262" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>47</v>
       </c>
@@ -8446,22 +8580,22 @@
         <v>48</v>
       </c>
       <c r="C263" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>47</v>
       </c>
@@ -8469,22 +8603,22 @@
         <v>48</v>
       </c>
       <c r="C264" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>47</v>
       </c>
@@ -8492,22 +8626,22 @@
         <v>48</v>
       </c>
       <c r="C265" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>47</v>
       </c>
@@ -8515,22 +8649,22 @@
         <v>48</v>
       </c>
       <c r="C266" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>47</v>
       </c>
@@ -8538,49 +8672,45 @@
         <v>48</v>
       </c>
       <c r="C267" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C268" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>49</v>
       </c>
@@ -8588,22 +8718,26 @@
         <v>50</v>
       </c>
       <c r="C269" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>49</v>
       </c>
@@ -8611,22 +8745,22 @@
         <v>50</v>
       </c>
       <c r="C270" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>49</v>
       </c>
@@ -8634,22 +8768,22 @@
         <v>50</v>
       </c>
       <c r="C271" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>49</v>
       </c>
@@ -8657,24 +8791,22 @@
         <v>50</v>
       </c>
       <c r="C272" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>49</v>
       </c>
@@ -8682,22 +8814,24 @@
         <v>50</v>
       </c>
       <c r="C273" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F273" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>49</v>
       </c>
@@ -8705,22 +8839,22 @@
         <v>50</v>
       </c>
       <c r="C274" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>49</v>
       </c>
@@ -8728,22 +8862,22 @@
         <v>50</v>
       </c>
       <c r="C275" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>49</v>
       </c>
@@ -8751,22 +8885,22 @@
         <v>50</v>
       </c>
       <c r="C276" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>49</v>
       </c>
@@ -8774,22 +8908,22 @@
         <v>50</v>
       </c>
       <c r="C277" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>49</v>
       </c>
@@ -8797,22 +8931,22 @@
         <v>50</v>
       </c>
       <c r="C278" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>49</v>
       </c>
@@ -8820,22 +8954,22 @@
         <v>50</v>
       </c>
       <c r="C279" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>49</v>
       </c>
@@ -8843,49 +8977,45 @@
         <v>50</v>
       </c>
       <c r="C280" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C281" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F281" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>51</v>
       </c>
@@ -8893,13 +9023,13 @@
         <v>52</v>
       </c>
       <c r="C282" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>84</v>
@@ -8909,10 +9039,10 @@
       </c>
       <c r="H282" s="1"/>
       <c r="I282" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>51</v>
       </c>
@@ -8920,22 +9050,26 @@
         <v>52</v>
       </c>
       <c r="C283" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H283" s="1"/>
       <c r="I283" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>51</v>
       </c>
@@ -8943,22 +9077,22 @@
         <v>52</v>
       </c>
       <c r="C284" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>51</v>
       </c>
@@ -8966,22 +9100,22 @@
         <v>52</v>
       </c>
       <c r="C285" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>51</v>
       </c>
@@ -8989,22 +9123,22 @@
         <v>52</v>
       </c>
       <c r="C286" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>51</v>
       </c>
@@ -9012,49 +9146,45 @@
         <v>52</v>
       </c>
       <c r="C287" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F288" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>53</v>
       </c>
@@ -9062,10 +9192,10 @@
         <v>54</v>
       </c>
       <c r="C289" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>107</v>
@@ -9078,10 +9208,10 @@
       </c>
       <c r="H289" s="1"/>
       <c r="I289" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>53</v>
       </c>
@@ -9089,22 +9219,26 @@
         <v>54</v>
       </c>
       <c r="C290" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>122</v>
+        <v>385</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H290" s="1"/>
       <c r="I290" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>53</v>
       </c>
@@ -9112,22 +9246,22 @@
         <v>54</v>
       </c>
       <c r="C291" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>53</v>
       </c>
@@ -9135,22 +9269,22 @@
         <v>54</v>
       </c>
       <c r="C292" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>53</v>
       </c>
@@ -9158,22 +9292,22 @@
         <v>54</v>
       </c>
       <c r="C293" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>53</v>
       </c>
@@ -9181,49 +9315,45 @@
         <v>54</v>
       </c>
       <c r="C294" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F295" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>55</v>
       </c>
@@ -9231,24 +9361,26 @@
         <v>56</v>
       </c>
       <c r="C296" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G296" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>55</v>
       </c>
@@ -9256,22 +9388,24 @@
         <v>56</v>
       </c>
       <c r="C297" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F297" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>55</v>
       </c>
@@ -9279,22 +9413,22 @@
         <v>56</v>
       </c>
       <c r="C298" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>55</v>
       </c>
@@ -9302,22 +9436,22 @@
         <v>56</v>
       </c>
       <c r="C299" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>55</v>
       </c>
@@ -9325,22 +9459,22 @@
         <v>56</v>
       </c>
       <c r="C300" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>55</v>
       </c>
@@ -9348,22 +9482,22 @@
         <v>56</v>
       </c>
       <c r="C301" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>55</v>
       </c>
@@ -9371,22 +9505,22 @@
         <v>56</v>
       </c>
       <c r="C302" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>55</v>
       </c>
@@ -9394,49 +9528,45 @@
         <v>56</v>
       </c>
       <c r="C303" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C304" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F304" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>57</v>
       </c>
@@ -9444,10 +9574,10 @@
         <v>58</v>
       </c>
       <c r="C305" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>391</v>
+        <v>233</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>107</v>
@@ -9460,10 +9590,10 @@
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>57</v>
       </c>
@@ -9471,22 +9601,26 @@
         <v>58</v>
       </c>
       <c r="C306" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H306" s="1"/>
       <c r="I306" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>57</v>
       </c>
@@ -9494,22 +9628,22 @@
         <v>58</v>
       </c>
       <c r="C307" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>57</v>
       </c>
@@ -9517,22 +9651,22 @@
         <v>58</v>
       </c>
       <c r="C308" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>57</v>
       </c>
@@ -9540,22 +9674,22 @@
         <v>58</v>
       </c>
       <c r="C309" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>57</v>
       </c>
@@ -9563,49 +9697,45 @@
         <v>58</v>
       </c>
       <c r="C310" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C311" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>59</v>
       </c>
@@ -9613,22 +9743,26 @@
         <v>60</v>
       </c>
       <c r="C312" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H312" s="1"/>
       <c r="I312" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>59</v>
       </c>
@@ -9636,22 +9770,22 @@
         <v>60</v>
       </c>
       <c r="C313" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>103</v>
+        <v>393</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>59</v>
       </c>
@@ -9659,22 +9793,22 @@
         <v>60</v>
       </c>
       <c r="C314" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>59</v>
       </c>
@@ -9682,22 +9816,22 @@
         <v>60</v>
       </c>
       <c r="C315" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>59</v>
       </c>
@@ -9705,49 +9839,45 @@
         <v>60</v>
       </c>
       <c r="C316" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C317" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>61</v>
       </c>
@@ -9755,13 +9885,13 @@
         <v>62</v>
       </c>
       <c r="C318" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>84</v>
@@ -9771,10 +9901,10 @@
       </c>
       <c r="H318" s="1"/>
       <c r="I318" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>61</v>
       </c>
@@ -9782,22 +9912,26 @@
         <v>62</v>
       </c>
       <c r="C319" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F319" s="1"/>
-      <c r="G319" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H319" s="1"/>
       <c r="I319" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>61</v>
       </c>
@@ -9805,22 +9939,22 @@
         <v>62</v>
       </c>
       <c r="C320" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>103</v>
+        <v>395</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>61</v>
       </c>
@@ -9828,22 +9962,22 @@
         <v>62</v>
       </c>
       <c r="C321" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>61</v>
       </c>
@@ -9851,22 +9985,22 @@
         <v>62</v>
       </c>
       <c r="C322" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>61</v>
       </c>
@@ -9874,49 +10008,45 @@
         <v>62</v>
       </c>
       <c r="C323" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C324" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>63</v>
       </c>
@@ -9924,13 +10054,13 @@
         <v>64</v>
       </c>
       <c r="C325" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>84</v>
@@ -9940,24 +10070,24 @@
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C326" s="1">
+        <v>2</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C326" s="1">
-        <v>1</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E326" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>84</v>
@@ -9967,10 +10097,10 @@
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>65</v>
       </c>
@@ -9978,24 +10108,26 @@
         <v>66</v>
       </c>
       <c r="C327" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F327" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G327" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>65</v>
       </c>
@@ -10003,22 +10135,24 @@
         <v>66</v>
       </c>
       <c r="C328" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
+      <c r="G328" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>65</v>
       </c>
@@ -10026,22 +10160,22 @@
         <v>66</v>
       </c>
       <c r="C329" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>65</v>
       </c>
@@ -10049,22 +10183,22 @@
         <v>66</v>
       </c>
       <c r="C330" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>65</v>
       </c>
@@ -10072,22 +10206,22 @@
         <v>66</v>
       </c>
       <c r="C331" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>65</v>
       </c>
@@ -10095,22 +10229,22 @@
         <v>66</v>
       </c>
       <c r="C332" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>65</v>
       </c>
@@ -10118,49 +10252,45 @@
         <v>66</v>
       </c>
       <c r="C333" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C334" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>405</v>
+        <v>111</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>67</v>
       </c>
@@ -10168,51 +10298,51 @@
         <v>68</v>
       </c>
       <c r="C335" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F335" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G335" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H335" s="1"/>
       <c r="I335" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C336" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F336" s="1"/>
       <c r="G336" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H336" s="1"/>
       <c r="I336" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>69</v>
       </c>
@@ -10220,49 +10350,49 @@
         <v>70</v>
       </c>
       <c r="C337" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H337" s="1"/>
       <c r="I337" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C338" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>71</v>
       </c>
@@ -10270,22 +10400,26 @@
         <v>72</v>
       </c>
       <c r="C339" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>145</v>
+        <v>413</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H339" s="1"/>
       <c r="I339" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>71</v>
       </c>
@@ -10293,22 +10427,22 @@
         <v>72</v>
       </c>
       <c r="C340" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>415</v>
+        <v>145</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>71</v>
       </c>
@@ -10316,10 +10450,10 @@
         <v>72</v>
       </c>
       <c r="C341" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>159</v>
@@ -10328,10 +10462,10 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>71</v>
       </c>
@@ -10339,10 +10473,10 @@
         <v>72</v>
       </c>
       <c r="C342" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>311</v>
+        <v>417</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>159</v>
@@ -10351,10 +10485,10 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>71</v>
       </c>
@@ -10362,22 +10496,22 @@
         <v>72</v>
       </c>
       <c r="C343" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>419</v>
+        <v>311</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>71</v>
       </c>
@@ -10385,10 +10519,10 @@
         <v>72</v>
       </c>
       <c r="C344" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>83</v>
@@ -10397,10 +10531,10 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>71</v>
       </c>
@@ -10408,22 +10542,22 @@
         <v>72</v>
       </c>
       <c r="C345" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>103</v>
+        <v>421</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>71</v>
       </c>
@@ -10431,22 +10565,22 @@
         <v>72</v>
       </c>
       <c r="C346" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>71</v>
       </c>
@@ -10454,22 +10588,22 @@
         <v>72</v>
       </c>
       <c r="C347" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>71</v>
       </c>
@@ -10477,49 +10611,45 @@
         <v>72</v>
       </c>
       <c r="C348" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C349" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>73</v>
       </c>
@@ -10527,24 +10657,26 @@
         <v>74</v>
       </c>
       <c r="C350" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G350" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>73</v>
       </c>
@@ -10552,22 +10684,24 @@
         <v>74</v>
       </c>
       <c r="C351" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F351" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>73</v>
       </c>
@@ -10575,22 +10709,22 @@
         <v>74</v>
       </c>
       <c r="C352" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>73</v>
       </c>
@@ -10598,22 +10732,22 @@
         <v>74</v>
       </c>
       <c r="C353" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>73</v>
       </c>
@@ -10621,49 +10755,45 @@
         <v>74</v>
       </c>
       <c r="C354" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C355" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>75</v>
       </c>
@@ -10671,22 +10801,26 @@
         <v>76</v>
       </c>
       <c r="C356" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>423</v>
+        <v>231</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>75</v>
       </c>
@@ -10694,24 +10828,22 @@
         <v>76</v>
       </c>
       <c r="C357" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F357" s="1" t="s">
-        <v>426</v>
-      </c>
+      <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>75</v>
       </c>
@@ -10719,22 +10851,24 @@
         <v>76</v>
       </c>
       <c r="C358" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F358" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>75</v>
       </c>
@@ -10742,22 +10876,22 @@
         <v>76</v>
       </c>
       <c r="C359" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>75</v>
       </c>
@@ -10765,10 +10899,10 @@
         <v>76</v>
       </c>
       <c r="C360" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>91</v>
@@ -10777,10 +10911,10 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>75</v>
       </c>
@@ -10788,10 +10922,10 @@
         <v>76</v>
       </c>
       <c r="C361" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>91</v>
@@ -10800,10 +10934,10 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>75</v>
       </c>
@@ -10811,22 +10945,22 @@
         <v>76</v>
       </c>
       <c r="C362" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>75</v>
       </c>
@@ -10834,22 +10968,22 @@
         <v>76</v>
       </c>
       <c r="C363" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>75</v>
       </c>
@@ -10857,10 +10991,10 @@
         <v>76</v>
       </c>
       <c r="C364" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>99</v>
@@ -10869,10 +11003,10 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>75</v>
       </c>
@@ -10880,22 +11014,22 @@
         <v>76</v>
       </c>
       <c r="C365" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>75</v>
       </c>
@@ -10903,22 +11037,22 @@
         <v>76</v>
       </c>
       <c r="C366" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>75</v>
       </c>
@@ -10926,22 +11060,22 @@
         <v>76</v>
       </c>
       <c r="C367" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>75</v>
       </c>
@@ -10949,22 +11083,22 @@
         <v>76</v>
       </c>
       <c r="C368" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>75</v>
       </c>
@@ -10972,22 +11106,22 @@
         <v>76</v>
       </c>
       <c r="C369" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>75</v>
       </c>
@@ -10995,22 +11129,22 @@
         <v>76</v>
       </c>
       <c r="C370" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>75</v>
       </c>
@@ -11018,22 +11152,22 @@
         <v>76</v>
       </c>
       <c r="C371" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>442</v>
+        <v>111</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>443</v>
+        <v>107</v>
       </c>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>75</v>
       </c>
@@ -11041,10 +11175,10 @@
         <v>76</v>
       </c>
       <c r="C372" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>443</v>
@@ -11053,10 +11187,10 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>75</v>
       </c>
@@ -11064,49 +11198,45 @@
         <v>76</v>
       </c>
       <c r="C373" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>265</v>
+        <v>443</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C374" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>77</v>
       </c>
@@ -11114,22 +11244,26 @@
         <v>78</v>
       </c>
       <c r="C375" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F375" s="1"/>
-      <c r="G375" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H375" s="1"/>
       <c r="I375" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>77</v>
       </c>
@@ -11137,10 +11271,10 @@
         <v>78</v>
       </c>
       <c r="C376" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>450</v>
+        <v>145</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>83</v>
@@ -11149,10 +11283,10 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>77</v>
       </c>
@@ -11160,10 +11294,10 @@
         <v>78</v>
       </c>
       <c r="C377" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>83</v>
@@ -11172,10 +11306,10 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>77</v>
       </c>
@@ -11183,10 +11317,10 @@
         <v>78</v>
       </c>
       <c r="C378" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>83</v>
@@ -11195,10 +11329,10 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>77</v>
       </c>
@@ -11206,22 +11340,22 @@
         <v>78</v>
       </c>
       <c r="C379" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>454</v>
+        <v>165</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>77</v>
       </c>
@@ -11229,22 +11363,22 @@
         <v>78</v>
       </c>
       <c r="C380" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>77</v>
       </c>
@@ -11252,22 +11386,22 @@
         <v>78</v>
       </c>
       <c r="C381" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>77</v>
       </c>
@@ -11275,22 +11409,22 @@
         <v>78</v>
       </c>
       <c r="C382" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>103</v>
+        <v>458</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>77</v>
       </c>
@@ -11298,22 +11432,22 @@
         <v>78</v>
       </c>
       <c r="C383" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>77</v>
       </c>
@@ -11321,22 +11455,22 @@
         <v>78</v>
       </c>
       <c r="C384" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>77</v>
       </c>
@@ -11344,22 +11478,22 @@
         <v>78</v>
       </c>
       <c r="C385" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>77</v>
       </c>
@@ -11367,154 +11501,302 @@
         <v>78</v>
       </c>
       <c r="C386" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>460</v>
+        <v>111</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
-      <c r="E387" s="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C387" s="1">
+        <v>13</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A388" s="1"/>
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
-      <c r="D388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
+      <c r="I387" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C388" s="1">
+        <v>1</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H388" s="1"/>
-      <c r="I388" s="1"/>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-      <c r="E389" s="1"/>
+      <c r="I388" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C389" s="1">
+        <v>2</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
-      <c r="I389" s="1"/>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
-      <c r="D390" s="1"/>
-      <c r="E390" s="1"/>
+      <c r="I389" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C390" s="1">
+        <v>3</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
-      <c r="I390" s="1"/>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
+      <c r="I390" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C391" s="1">
+        <v>4</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-      <c r="E392" s="1"/>
+      <c r="I391" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C392" s="1">
+        <v>5</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-      <c r="D393" s="1"/>
-      <c r="E393" s="1"/>
+      <c r="I392" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C393" s="1">
+        <v>6</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
+      <c r="I393" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C394" s="1">
+        <v>7</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
-      <c r="I394" s="1"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-      <c r="D395" s="1"/>
-      <c r="E395" s="1"/>
+      <c r="I394" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C395" s="1">
+        <v>8</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
-      <c r="I395" s="1"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-      <c r="E396" s="1"/>
+      <c r="I395" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C396" s="1">
+        <v>9</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
-      <c r="I396" s="1"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-      <c r="D397" s="1"/>
-      <c r="E397" s="1"/>
+      <c r="I396" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C397" s="1">
+        <v>10</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
-      <c r="I397" s="1"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-      <c r="D398" s="1"/>
-      <c r="E398" s="1"/>
+      <c r="I397" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C398" s="1">
+        <v>11</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
-      <c r="I398" s="1"/>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I398" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11525,7 +11807,7 @@
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11536,7 +11818,7 @@
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11547,7 +11829,7 @@
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11558,7 +11840,7 @@
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11569,7 +11851,7 @@
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11580,7 +11862,7 @@
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11591,7 +11873,7 @@
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11602,7 +11884,7 @@
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11613,7 +11895,7 @@
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11624,7 +11906,7 @@
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11635,7 +11917,7 @@
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11646,7 +11928,7 @@
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11657,7 +11939,7 @@
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11668,7 +11950,7 @@
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11679,7 +11961,7 @@
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11690,7 +11972,7 @@
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11701,7 +11983,7 @@
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11712,7 +11994,7 @@
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11723,7 +12005,7 @@
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -11734,7 +12016,7 @@
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -11745,7 +12027,7 @@
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -11756,7 +12038,7 @@
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -11767,7 +12049,7 @@
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -11778,7 +12060,7 @@
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -11789,7 +12071,7 @@
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -11800,7 +12082,7 @@
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -11811,7 +12093,7 @@
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -11822,7 +12104,7 @@
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -11833,7 +12115,7 @@
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -11844,7 +12126,7 @@
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -11855,7 +12137,7 @@
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -11866,7 +12148,7 @@
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -11877,7 +12159,7 @@
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11888,7 +12170,7 @@
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11899,6 +12181,17 @@
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
     </row>
+    <row r="434" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
+      <c r="G434" s="1"/>
+      <c r="H434" s="1"/>
+      <c r="I434" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
